--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanfebeta/Documents/Mirror/juanfebeta/Academia/Posgrados/01_UCaldas_MIC/20_IA2/C3/Proyecto/MIC_Proyecto_HPC_FFD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C158E88F-7944-0E42-B9D5-EE9990DE90EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8F9A29-2124-7F4B-A62D-DE3D817F960E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{209B078E-05E5-B945-A995-A96FC5B7550D}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{209B078E-05E5-B945-A995-A96FC5B7550D}"/>
   </bookViews>
   <sheets>
     <sheet name="todos" sheetId="2" r:id="rId1"/>
     <sheet name="Threads" sheetId="1" r:id="rId2"/>
     <sheet name="Multiprocessing" sheetId="3" r:id="rId3"/>
     <sheet name="MPI4PY" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Threads!$E$13:$E$15</definedName>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="26">
   <si>
     <t>Secuencial</t>
   </si>
@@ -123,6 +124,18 @@
   <si>
     <t>Tiempo Carga</t>
   </si>
+  <si>
+    <t>T.Secuencial</t>
+  </si>
+  <si>
+    <t>acel</t>
+  </si>
+  <si>
+    <t>efci</t>
+  </si>
+  <si>
+    <t>nproc</t>
+  </si>
 </sst>
 </file>
 
@@ -161,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -184,19 +197,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -883,6 +916,9 @@
               <c:f>Threads!$K$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T.Secuencial</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1044,19 +1080,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1419,7 +1443,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Escalabilidad Fuerte: Multiprocessing</a:t>
+              <a:t>Escalabilidad Fuerte: Threads</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1465,9 +1489,12 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Multiprocessing!$K$12</c:f>
+              <c:f>Threads!$K$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T.Secuencial</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1481,45 +1508,114 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>Multiprocessing!$E$13:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:multiLvlStrRef>
+              <c:f>Threads!$E$21:$F$23</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>388.29</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>54.17</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>276.35</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Multiprocessing!$K$13:$K$15</c:f>
+              <c:f>Threads!$K$21:$K$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>7304.2</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>388.29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7304.2</c:v>
+                  <c:v>388.29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7304.2</c:v>
+                  <c:v>388.29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1A1F-D740-8A96-41915B38007E}"/>
+              <c16:uniqueId val="{00000000-A4E8-CC48-A8FE-9FCFC662EBD2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1528,7 +1624,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Multiprocessing!$F$12</c:f>
+              <c:f>Threads!$F$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1547,45 +1643,114 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Threads!$E$21:$F$23</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>388.29</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>54.17</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>276.35</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Multiprocessing!$E$13:$E$15</c:f>
+              <c:f>Threads!$F$21:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>388.29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>54.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Multiprocessing!$F$13:$F$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>7304.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>92.45</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>85.47</c:v>
+                  <c:v>276.35000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1A1F-D740-8A96-41915B38007E}"/>
+              <c16:uniqueId val="{00000001-A4E8-CC48-A8FE-9FCFC662EBD2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1610,7 +1775,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Multiprocessing!$F$12</c:f>
+              <c:f>Threads!$F$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1629,23 +1794,11 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Multiprocessing!$E$13:$E$15</c:f>
+              <c:f>Threads!$E$21:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1663,18 +1816,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Multiprocessing!$F$13:$F$15</c:f>
+              <c:f>Threads!$F$21:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7304.2</c:v>
+                  <c:v>388.29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92.45</c:v>
+                  <c:v>54.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.47</c:v>
+                  <c:v>276.35000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1682,7 +1835,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1A1F-D740-8A96-41915B38007E}"/>
+              <c16:uniqueId val="{00000002-A4E8-CC48-A8FE-9FCFC662EBD2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2004,6 +2157,1284 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Escalabilidad Fuerte: Multiprocessing</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Multiprocessing!$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T.Secuencial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Multiprocessing!$E$13:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Multiprocessing!$K$13:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7304.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7304.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7304.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A1F-D740-8A96-41915B38007E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Multiprocessing!$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo Ejec. Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Multiprocessing!$E$13:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Multiprocessing!$F$13:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7304.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1A1F-D740-8A96-41915B38007E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2123428016"/>
+        <c:axId val="2123429728"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Multiprocessing!$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo Ejec. Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Multiprocessing!$E$13:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Multiprocessing!$F$13:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7304.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1A1F-D740-8A96-41915B38007E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2123428016"/>
+        <c:axId val="2123429728"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2123428016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2123429728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2123429728"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>T.Ejecucion (Sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2123428016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Escalabilidad Fuerte: Multiprocessing</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Multiprocessing!$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T.Secuencial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Multiprocessing!$E$20:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Multiprocessing!$K$20:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>388.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>388.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>388.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0836-0D4D-92E7-ACE464B8F371}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Multiprocessing!$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo Ejec. Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Multiprocessing!$E$20:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Multiprocessing!$F$20:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>388.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>307.64999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>290.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0836-0D4D-92E7-ACE464B8F371}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2123428016"/>
+        <c:axId val="2123429728"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Multiprocessing!$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo Ejec. Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Multiprocessing!$E$20:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Multiprocessing!$F$20:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>388.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>307.64999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>290.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0836-0D4D-92E7-ACE464B8F371}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2123428016"/>
+        <c:axId val="2123429728"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2123428016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2123429728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2123429728"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>T.Ejecucion (Sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2123428016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Escalabilidad Fuerte: MPI4PY</a:t>
             </a:r>
           </a:p>
@@ -2050,7 +3481,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>MPI4PY!$I$12</c:f>
+              <c:f>MPI4PY!$K$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -2086,7 +3517,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>MPI4PY!$I$13:$I$15</c:f>
+              <c:f>MPI4PY!$K$13:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2117,7 +3548,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ejec total</c:v>
+                  <c:v>Tiempo Ejec. Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2199,7 +3630,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ejec total</c:v>
+                  <c:v>Tiempo Ejec. Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2714,6 +4145,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4224,6 +5735,1012 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4774,15 +7291,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>450849</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>168074</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>218874</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4905,6 +7422,44 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>326825</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA4189C5-9793-1548-827E-A10EEB6E30F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4913,15 +7468,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>168074</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>396674</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4948,6 +7503,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>403025</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F013D8-BA07-9047-B7D0-FBF23315AFFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4955,13 +7548,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>400049</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>168074</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
@@ -5544,8 +8137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9394B627-6D8A-E443-9D52-488686DD0DF7}">
   <dimension ref="C10:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5589,6 +8182,9 @@
       <c r="J12" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="K12" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
@@ -5633,11 +8229,11 @@
         <f>F14-G14</f>
         <v>1.5399999999999991</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <f t="shared" ref="I14:I15" si="0">K14/F14</f>
         <v>134.83847147867823</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <f t="shared" ref="J14:J15" si="1">I14/E14</f>
         <v>26.967694295735647</v>
       </c>
@@ -5665,11 +8261,11 @@
         <f>F15-G15</f>
         <v>1.8499999999999979</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <f t="shared" si="0"/>
         <v>291.46847565841978</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <f t="shared" si="1"/>
         <v>29.146847565841977</v>
       </c>
@@ -5677,12 +8273,15 @@
         <v>7304.2</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
@@ -5693,18 +8292,25 @@
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
@@ -5714,15 +8320,20 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21">
+        <v>388.29</v>
+      </c>
       <c r="G21" s="1">
         <v>0</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1">
+        <v>388.29</v>
+      </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
@@ -5742,10 +8353,19 @@
         <f>F22-G22</f>
         <v>1.5399999999999991</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="I22" s="6">
+        <f t="shared" ref="I22:I23" si="2">K22/F22</f>
+        <v>7.1679896621746355</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" ref="J22:J23" si="3">I22/E22</f>
+        <v>1.4335979324349271</v>
+      </c>
+      <c r="K22" s="6">
+        <v>388.29</v>
+      </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>10</v>
       </c>
@@ -5765,8 +8385,17 @@
         <f>F23-G23</f>
         <v>244.35000000000002</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="I23" s="6">
+        <f t="shared" si="2"/>
+        <v>1.4050660394427357</v>
+      </c>
+      <c r="J23" s="6">
+        <f t="shared" si="3"/>
+        <v>0.14050660394427356</v>
+      </c>
+      <c r="K23" s="6">
+        <v>388.29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5777,10 +8406,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33A34B5-4C7D-5B40-825F-DECE28CF01DA}">
-  <dimension ref="C12:K15"/>
+  <dimension ref="C10:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5794,6 +8423,11 @@
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>11</v>
@@ -5818,6 +8452,9 @@
       </c>
       <c r="J12" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.2">
@@ -5863,8 +8500,14 @@
         <f>F14-G14</f>
         <v>7.2400000000000091</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="I14" s="6">
+        <f t="shared" ref="I14:I15" si="0">K14/F14</f>
+        <v>79.00703082747431</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" ref="J14:J15" si="1">I14/E14</f>
+        <v>15.801406165494862</v>
+      </c>
       <c r="K14" s="1">
         <v>7304.2</v>
       </c>
@@ -5889,11 +8532,145 @@
         <f>F15-G15</f>
         <v>1.4899999999999949</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="I15" s="6">
+        <f t="shared" si="0"/>
+        <v>85.459225459225465</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="1"/>
+        <v>8.5459225459225472</v>
+      </c>
       <c r="K15" s="1">
         <v>7304.2</v>
       </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C18" s="5"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>388.29</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1">
+        <v>388.29</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>307.64999999999998</v>
+      </c>
+      <c r="G21" s="1">
+        <v>122.74</v>
+      </c>
+      <c r="H21" s="1">
+        <f>F21-G21</f>
+        <v>184.90999999999997</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" ref="I21:I22" si="2">K21/F21</f>
+        <v>1.2621160409556316</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" ref="J21:J22" si="3">I21/E21</f>
+        <v>0.25242320819112629</v>
+      </c>
+      <c r="K21" s="6">
+        <v>388.29</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1">
+        <v>290.87</v>
+      </c>
+      <c r="G22" s="1">
+        <v>98.54</v>
+      </c>
+      <c r="H22" s="1">
+        <f>F22-G22</f>
+        <v>192.32999999999998</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3349262557156119</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="3"/>
+        <v>0.13349262557156119</v>
+      </c>
+      <c r="K22" s="6">
+        <v>388.29</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F26" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5904,10 +8681,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44EE10E-4559-E440-8A4C-5AB0D2C3AC52}">
-  <dimension ref="C12:I15"/>
+  <dimension ref="C10:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5919,7 +8696,12 @@
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
@@ -5930,16 +8712,22 @@
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
@@ -5956,11 +8744,13 @@
         <v>0</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1">
         <v>7304.2</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -5980,11 +8770,19 @@
         <f>F14-G14</f>
         <v>4.3799999999999955</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="6">
+        <f t="shared" ref="I14:I15" si="0">K14/F14</f>
+        <v>132.61074800290487</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" ref="J14:J15" si="1">I14/E14</f>
+        <v>26.522149600580974</v>
+      </c>
+      <c r="K14" s="1">
         <v>7304.2</v>
       </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -6004,8 +8802,132 @@
         <f>F15-G15</f>
         <v>8.9399999999999835</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="6">
+        <f t="shared" si="0"/>
+        <v>56.975039001560063</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="1"/>
+        <v>5.6975039001560059</v>
+      </c>
+      <c r="K15" s="1">
         <v>7304.2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>388.29</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1">
+        <v>388.29</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1">
+        <f>F22-G22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="6" t="e">
+        <f t="shared" ref="I22:I23" si="2">K22/F22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" s="6" t="e">
+        <f t="shared" ref="J22:J23" si="3">I22/E22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="6">
+        <v>388.29</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1">
+        <f>F23-G23</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" s="6">
+        <v>388.29</v>
       </c>
     </row>
   </sheetData>
@@ -6013,4 +8935,168 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299C9FC1-5382-6246-A069-01A82AD97578}">
+  <dimension ref="C6:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7304.2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1">
+        <v>7304.2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2560</v>
+      </c>
+      <c r="F10" s="1">
+        <v>161.41</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="H10" s="1">
+        <f>F10-G10</f>
+        <v>160.59</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" ref="I10" si="0">K10/F10</f>
+        <v>45.252462672696858</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" ref="J10" si="1">I10/E10</f>
+        <v>1.7676743231522209E-2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>7304.2</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>50</v>
+      </c>
+      <c r="J19">
+        <f>I18/I19</f>
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <f>J19/H19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>40</v>
+      </c>
+      <c r="J20">
+        <f>I18/I20</f>
+        <v>2.5</v>
+      </c>
+      <c r="K20">
+        <f>J20/H20</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>